--- a/RedditBattles_Operations.xlsx
+++ b/RedditBattles_Operations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Battle of Moscow</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Avalanche</t>
   </si>
   <si>
-    <t>August Storm</t>
-  </si>
-  <si>
     <t>D-Day</t>
   </si>
   <si>
@@ -126,6 +123,27 @@
   </si>
   <si>
     <t>Operation Market Garden</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>August Storm / Manchurian Strategic Offensive Operation</t>
+  </si>
+  <si>
+    <t>Vielleicht machbar</t>
+  </si>
+  <si>
+    <t>Event (vermutlich nicht machbar)</t>
+  </si>
+  <si>
+    <t>Battle (sort of)</t>
   </si>
 </sst>
 </file>
@@ -477,184 +495,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="B34" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/RedditBattles_Operations.xlsx
+++ b/RedditBattles_Operations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\WW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\WW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Battle of Moscow</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Battle (sort of)</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -639,7 +642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -647,7 +650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -655,7 +658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -663,7 +666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -671,7 +674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -679,7 +682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -687,7 +690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -695,7 +698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -703,7 +706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -711,7 +714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -719,7 +722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -727,7 +730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -735,44 +738,59 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/RedditBattles_Operations.xlsx
+++ b/RedditBattles_Operations.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\WW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\WW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Battle of Moscow</t>
   </si>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +529,9 @@
       <c r="B3" t="s">
         <v>34</v>
       </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -537,6 +540,9 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -553,6 +559,9 @@
       <c r="B6" t="s">
         <v>34</v>
       </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -704,6 +713,9 @@
       </c>
       <c r="B25" t="s">
         <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">

--- a/RedditBattles_Operations.xlsx
+++ b/RedditBattles_Operations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>Battle of Moscow</t>
   </si>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,6 +594,9 @@
       <c r="B10" t="s">
         <v>35</v>
       </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -602,6 +605,9 @@
       <c r="B11" t="s">
         <v>35</v>
       </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -641,6 +647,9 @@
       </c>
       <c r="B16" t="s">
         <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/RedditBattles_Operations.xlsx
+++ b/RedditBattles_Operations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Battle of Moscow</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Sascha</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Carina</t>
+  </si>
+  <si>
+    <t>Henry!</t>
+  </si>
+  <si>
+    <t>Operation Reihneübung</t>
+  </si>
+  <si>
+    <t>Denmark Straits</t>
   </si>
 </sst>
 </file>
@@ -498,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +569,9 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -570,6 +591,9 @@
       <c r="B7" t="s">
         <v>34</v>
       </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -578,6 +602,9 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -586,6 +613,9 @@
       <c r="B9" t="s">
         <v>37</v>
       </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -616,6 +646,9 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -624,6 +657,9 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -632,6 +668,9 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -640,6 +679,9 @@
       <c r="B15" t="s">
         <v>35</v>
       </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -667,6 +709,9 @@
       <c r="B18" t="s">
         <v>34</v>
       </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -675,6 +720,9 @@
       <c r="B19" t="s">
         <v>34</v>
       </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -683,6 +731,9 @@
       <c r="B20" t="s">
         <v>34</v>
       </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -691,6 +742,9 @@
       <c r="B21" t="s">
         <v>38</v>
       </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -699,6 +753,9 @@
       <c r="B22" t="s">
         <v>34</v>
       </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -707,6 +764,9 @@
       <c r="B23" t="s">
         <v>35</v>
       </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -715,6 +775,9 @@
       <c r="B24" t="s">
         <v>39</v>
       </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -734,6 +797,9 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -742,6 +808,9 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -750,6 +819,9 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -758,6 +830,9 @@
       <c r="B29" t="s">
         <v>34</v>
       </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -812,6 +887,28 @@
       </c>
       <c r="D34" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/RedditBattles_Operations.xlsx
+++ b/RedditBattles_Operations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\WW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\WW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">

--- a/RedditBattles_Operations.xlsx
+++ b/RedditBattles_Operations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>Battle of Moscow</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Henry</t>
-  </si>
-  <si>
-    <t>Carina</t>
   </si>
   <si>
     <t>Henry!</t>
@@ -518,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +740,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,7 +806,7 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,7 +888,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -902,7 +899,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>

--- a/RedditBattles_Operations.xlsx
+++ b/RedditBattles_Operations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\WW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\WW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>Battle of Moscow</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Siege of Leningrad</t>
   </si>
   <si>
-    <t>Operation Begration</t>
-  </si>
-  <si>
     <t>Battle of Berlin</t>
   </si>
   <si>
@@ -149,19 +146,16 @@
     <t>x</t>
   </si>
   <si>
-    <t>Sascha</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Henry!</t>
-  </si>
-  <si>
     <t>Operation Reihneübung</t>
   </si>
   <si>
     <t>Denmark Straits</t>
+  </si>
+  <si>
+    <t>Operation Bagration</t>
+  </si>
+  <si>
+    <t>nicht machbar</t>
   </si>
 </sst>
 </file>
@@ -515,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,17 +518,18 @@
     <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,191 +548,191 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -745,167 +740,167 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
